--- a/biology/Médecine/Phosphofructokinase-2/Phosphofructokinase-2.xlsx
+++ b/biology/Médecine/Phosphofructokinase-2/Phosphofructokinase-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phosphofructokinase-2 (PFK-2) ou fructose-bisphosphatase-2 (FBPase-2) est une enzyme bifonctionnelle, dotée à la fois d'une activité kinase et d'une activité phosphatase, qui catalyse les réactions :
 Chez l'homme, il en existe plusieurs isoformes, dont une codée par le gène PFKFB3, situé sur le chromosome 10. Elle participe à la régulation de la phosphofructokinase-1, laquelle intervient à la 3e étape de la glycolyse pour convertir le fructose-6-phosphate en fructose-1,6-bisphosphate, et joue par conséquent un rôle déterminant dans la vitesse de la glycolyse et de la gluconéogenèse.
-Il s'agit d'un dimère de deux sous-unités identiques de 55 kDa chacune. Ces sous-unités possèdent chacune un domaine kinase et un domaine phosphatase. La phosphorylation du résidu de sérine-32 favorise l'activité phosphatase, tandis que l'absence de phosphorylation de ce résidu favorise l'activité kinase[2]. Le demaine PFK2 est étroitement apparenté à la superfamille des protéines de liaison aux mononucléotides tels que l'adénylate cyclase, tandis que le domaine FBPase2 est apparenté à la même famille de protéines que les phosphoglycérate mutases.
+Il s'agit d'un dimère de deux sous-unités identiques de 55 kDa chacune. Ces sous-unités possèdent chacune un domaine kinase et un domaine phosphatase. La phosphorylation du résidu de sérine-32 favorise l'activité phosphatase, tandis que l'absence de phosphorylation de ce résidu favorise l'activité kinase. Le demaine PFK2 est étroitement apparenté à la superfamille des protéines de liaison aux mononucléotides tels que l'adénylate cyclase, tandis que le domaine FBPase2 est apparenté à la même famille de protéines que les phosphoglycérate mutases.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La PFK-2/FBPase-2 possède une double activité enzymatique antagoniste, à savoir une activité kinase catalysant la phosphorylation du D-fructose-6-phosphate (Fru-6-P) en D-fructose-2,6-bisphosphate (Fru-2,6-BP) par l'ATP, et une activité phosphatase catalysant l'hydrolyse du Fru-2,6-BP en Fru-6-P et Pi :
 Le D-fructose-2,6-bisphosphate est un activateur allostérique de la phosphofructokinase-1 (PFK-1), ce qui a pour effet de stimuler la glycolyse et de faire chuter le taux de glucose dans le cytoplasme.
@@ -546,7 +560,9 @@
           <t>Structure et régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La PFK-2/FBPase-2 est un homodimère de deux sous-unités de 55 kDa chacune arrangées en tête-à-tête pour former d'un côté un domaine phosphatase et de l'autre un domaine kinase, ce dernier du côté N-terminal des deux chaînes polypeptidiques. La sérine-32 de ces chaînes peut être phosphorylée, ce qui modifie la conformation de la protéine favorisant l'activité phosphatase FBPase-2 ; lorsque la Ser-32 n'est pas phosphorylée, c'est au contraire l'activité kinase PFK-2 qui est favorisée.
 La phosphorylation de la sérine-32 est catalysée par la protéine kinase A, activée par l'AMPc, elle-même produite comme second messager par l'adénylate cyclase sous l'effet du glucagon, qui a donc indirectement pour effet d'arrêter la glycolyse en favorisant la formation de D-fructose-6-phosphate à partir du D-fructose-2,6-bisphosphate, dont la concentration diminue, ce qui bloque la phosphofructokinase-1.
